--- a/Test Cases/Salini/TestScenarios.xlsx
+++ b/Test Cases/Salini/TestScenarios.xlsx
@@ -46,7 +46,7 @@
     <t>Check the case were a patient  entered as out patient and later the status was changed to in patient</t>
   </si>
   <si>
-    <t>Verify that the hard copy of the bill can be gnerated by printing the bill</t>
+    <t>Verify that the hard copy of the bill can be generated by printing the bill</t>
   </si>
   <si>
     <t>Check if a patient tries to book two different doctors at same time schedule</t>
@@ -63,9 +63,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -100,22 +100,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,14 +129,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -147,22 +178,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,68 +222,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,187 +258,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,6 +449,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -476,6 +491,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -493,35 +519,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,8 +544,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,7 +554,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,139 +572,136 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1046,9 +1043,9 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1059,13 +1056,13 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1073,10 +1070,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1084,10 +1081,10 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1095,10 +1092,10 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1106,10 +1103,10 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1117,10 +1114,10 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1128,10 +1125,10 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1139,10 +1136,10 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1150,10 +1147,10 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1161,10 +1158,10 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1172,10 +1169,10 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
     </row>
